--- a/inst/extdata/Machines - Data/Electric lights/Electric lights.xlsx
+++ b/inst/extdata/Machines - Data/Electric lights/Electric lights.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Country</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>Final</t>
-  </si>
-  <si>
-    <t>FInal</t>
   </si>
   <si>
     <t>PCM</t>
@@ -535,7 +532,7 @@
   <dimension ref="A1:BI53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +547,7 @@
   <sheetData>
     <row r="1" spans="1:61" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -597,16 +594,16 @@
         <v>18</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="H3" s="10">
         <v>0.2</v>
@@ -678,16 +675,16 @@
         <v>18</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="G4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="9">
         <v>0.12612005856515399</v>
@@ -704,19 +701,19 @@
         <v>17</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="H5" s="7">
         <v>0.2</v>
@@ -733,19 +730,19 @@
         <v>17</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="G6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="8">
         <v>0.12612005856515399</v>
@@ -813,6 +810,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010060B7F65646EC444FB25DA4F5E743F4A7" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d7f09569f4a64415a488fee814f89e9f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="77d41baf-5ecc-4842-ba36-0ed33caf7049" xmlns:ns4="83e0870f-5ab0-41af-b2c4-f358cb535498" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8efd8f378c7a4511217f3fc9a2a42926" ns3:_="" ns4:_="">
     <xsd:import namespace="77d41baf-5ecc-4842-ba36-0ed33caf7049"/>
@@ -1029,15 +1035,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF083C1D-CE62-48EF-BAF9-9D27C80F6E5E}">
   <ds:schemaRefs>
@@ -1056,6 +1053,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D57BA165-9822-445B-B328-4F06AD982831}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F97C2014-63BC-4AD0-B7B7-B33C587EA9A3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1072,12 +1077,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D57BA165-9822-445B-B328-4F06AD982831}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>